--- a/biology/Botanique/Blidingia/Blidingia.xlsx
+++ b/biology/Botanique/Blidingia/Blidingia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Blidingia est un genre d'algues vertes de la famille des Kornmanniaceae.
 Dans sa forme la plus visible, Blidingia se présente sous forme de petits tubes verts dont la paroi est constituée d'une seule couche de cellules et ressemble à une entéromorphe. Elle s'en différencie cependant par des petites cellules et un plaste focal.
@@ -513,9 +525,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (29 avril 2013)[1] et World Register of Marine Species                               (29 avril 2013)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (29 avril 2013) et World Register of Marine Species                               (29 avril 2013) :
 Blidingia chadefaudii (Feldmann) Bliding
 Blidingia dawsonii (Hollenberg &amp; I.A.Abbott) S.C.Lindstrom, L.A.Hanic &amp; L.Golden
 Blidingia marginata (J.Agardh) P.J.L.Dangeard
